--- a/artfynd/A 71925-2018.xlsx
+++ b/artfynd/A 71925-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75634650</v>
+        <v>75634618</v>
       </c>
       <c r="B2" t="n">
-        <v>73686</v>
+        <v>73631</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>308</v>
+        <v>6426</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401184.0982227599</v>
+        <v>401268.8749723097</v>
       </c>
       <c r="R2" t="n">
-        <v>6364579.747579873</v>
+        <v>6364826.082713635</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75634618</v>
+        <v>75634650</v>
       </c>
       <c r="B3" t="n">
-        <v>73631</v>
+        <v>73686</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6426</v>
+        <v>308</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401268.8749723097</v>
+        <v>401184.0982227599</v>
       </c>
       <c r="R3" t="n">
-        <v>6364826.082713635</v>
+        <v>6364579.747579873</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 71925-2018.xlsx
+++ b/artfynd/A 71925-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75634618</v>
+        <v>75634650</v>
       </c>
       <c r="B2" t="n">
-        <v>73631</v>
+        <v>73686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6426</v>
+        <v>308</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401268.8749723097</v>
+        <v>401184.0982227599</v>
       </c>
       <c r="R2" t="n">
-        <v>6364826.082713635</v>
+        <v>6364579.747579873</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75634650</v>
+        <v>75634618</v>
       </c>
       <c r="B3" t="n">
-        <v>73686</v>
+        <v>73631</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>308</v>
+        <v>6426</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401184.0982227599</v>
+        <v>401268.8749723097</v>
       </c>
       <c r="R3" t="n">
-        <v>6364579.747579873</v>
+        <v>6364826.082713635</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
